--- a/biology/Biochimie/Botrocétine/Botrocétine.xlsx
+++ b/biology/Biochimie/Botrocétine/Botrocétine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Botroc%C3%A9tine</t>
+          <t>Botrocétine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La botrocétine est une protéine isolée de venin de serpent sud-américain de la famille du crotale "Bothrops neuwiedi". 
 La botrocétine est un hétérodimère composé d'une sous-unité alpha de 133 aa et d'une sous-unité bêta de 125 aa. Cette protéine a pour caractéristique de permettre l'activation in vitro du facteur von Willebrand (vWF). Le vWF est un facteur qui participe à l'hémostase et dont l'activation est dépendante des forces de tension qui sont retrouvées dans les vaisseaux sanguins. En condition statique, le vWF reste peu actif et les plaquettes sanguines ne vont pas pouvoir adhérer à des matrices de vWF. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Botroc%C3%A9tine</t>
+          <t>Botrocétine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragments actifs du complexe glycoprotéique 1b-9 des plaquettes - Inist
  Portail de la biochimie   Portail de la chimie                    </t>
